--- a/4/Paridades de monedas 1994 a 2021 - Trimestral.xlsx
+++ b/4/Paridades de monedas 1994 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
   <si>
     <t>Serie</t>
   </si>
@@ -525,6 +525,9 @@
   <si>
     <t>01-04-2021</t>
   </si>
+  <si>
+    <t>01-07-2021</t>
+  </si>
 </sst>
 </file>
 
@@ -881,7 +884,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BH111"/>
+  <dimension ref="A1:BH112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18473,6 +18476,188 @@
         <v>3.7574</v>
       </c>
     </row>
+    <row r="112" spans="1:60">
+      <c r="A112" t="s">
+        <v>170</v>
+      </c>
+      <c r="B112">
+        <v>32.8996</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>3875607.8053</v>
+      </c>
+      <c r="E112">
+        <v>6.86</v>
+      </c>
+      <c r="F112">
+        <v>620.5984</v>
+      </c>
+      <c r="G112">
+        <v>21.6189</v>
+      </c>
+      <c r="H112">
+        <v>6.3062</v>
+      </c>
+      <c r="I112">
+        <v>126.0131</v>
+      </c>
+      <c r="J112">
+        <v>8.761100000000001</v>
+      </c>
+      <c r="K112">
+        <v>8.6424</v>
+      </c>
+      <c r="L112">
+        <v>0.7030999999999999</v>
+      </c>
+      <c r="M112">
+        <v>3.672</v>
+      </c>
+      <c r="N112">
+        <v>8.9276</v>
+      </c>
+      <c r="O112">
+        <v>1.3605</v>
+      </c>
+      <c r="P112">
+        <v>1.2588</v>
+      </c>
+      <c r="Q112">
+        <v>1</v>
+      </c>
+      <c r="R112">
+        <v>2.0917</v>
+      </c>
+      <c r="S112">
+        <v>0.82</v>
+      </c>
+      <c r="T112">
+        <v>1</v>
+      </c>
+      <c r="U112">
+        <v>1.3523</v>
+      </c>
+      <c r="V112">
+        <v>7.7777</v>
+      </c>
+      <c r="W112">
+        <v>1.4276</v>
+      </c>
+      <c r="X112">
+        <v>27.85</v>
+      </c>
+      <c r="Y112">
+        <v>22863.6094</v>
+      </c>
+      <c r="Z112">
+        <v>0.848</v>
+      </c>
+      <c r="AA112">
+        <v>299.8227</v>
+      </c>
+      <c r="AB112">
+        <v>100.8014</v>
+      </c>
+      <c r="AC112">
+        <v>0.9179</v>
+      </c>
+      <c r="AD112">
+        <v>6883.65</v>
+      </c>
+      <c r="AE112">
+        <v>26.7531</v>
+      </c>
+      <c r="AF112">
+        <v>4.1798</v>
+      </c>
+      <c r="AG112">
+        <v>15.6632</v>
+      </c>
+      <c r="AH112">
+        <v>0.7254</v>
+      </c>
+      <c r="AI112">
+        <v>8.536799999999999</v>
+      </c>
+      <c r="AJ112">
+        <v>4.041</v>
+      </c>
+      <c r="AK112">
+        <v>97.18210000000001</v>
+      </c>
+      <c r="AL112">
+        <v>771.4316</v>
+      </c>
+      <c r="AM112">
+        <v>3841.7725</v>
+      </c>
+      <c r="AN112">
+        <v>24</v>
+      </c>
+      <c r="AO112">
+        <v>56.7453</v>
+      </c>
+      <c r="AP112">
+        <v>50.1055</v>
+      </c>
+      <c r="AQ112">
+        <v>20.0237</v>
+      </c>
+      <c r="AR112">
+        <v>43.1552</v>
+      </c>
+      <c r="AS112">
+        <v>7.7198</v>
+      </c>
+      <c r="AT112">
+        <v>14.6163</v>
+      </c>
+      <c r="AU112">
+        <v>5.2253</v>
+      </c>
+      <c r="AV112">
+        <v>42000</v>
+      </c>
+      <c r="AW112">
+        <v>3.75</v>
+      </c>
+      <c r="AX112">
+        <v>4.1941</v>
+      </c>
+      <c r="AY112">
+        <v>73.4888</v>
+      </c>
+      <c r="AZ112">
+        <v>74.08969999999999</v>
+      </c>
+      <c r="BA112">
+        <v>14375.6406</v>
+      </c>
+      <c r="BB112">
+        <v>163.7673</v>
+      </c>
+      <c r="BC112">
+        <v>3.2324</v>
+      </c>
+      <c r="BD112">
+        <v>425.495</v>
+      </c>
+      <c r="BE112">
+        <v>1158.4963</v>
+      </c>
+      <c r="BF112">
+        <v>110.0711</v>
+      </c>
+      <c r="BG112">
+        <v>6.4698</v>
+      </c>
+      <c r="BH112">
+        <v>3.8697</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
